--- a/data/panelapp/uk/Primary ciliary disorders.xlsx
+++ b/data/panelapp/uk/Primary ciliary disorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864191</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864204</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864207</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864210</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864212</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864215</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864218</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864224</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864227</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864229</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864232</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864234</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864237</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864239</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864242</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864245</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864247</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864250</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864252</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864255</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864257</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864260</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864264</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864266</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864269</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864272</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864275</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864277</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864280</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864283</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864285</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864288</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864291</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864293</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864296</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864298</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864301</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864303</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864306</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864308</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864311</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864314</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864317</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864319</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864321</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864324</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864326</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864329</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864331</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864334</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864336</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864339</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864342</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864345</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864347</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864350</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864352</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864355</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864357</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864360</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864362</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864365</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864368</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864370</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864374</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864377</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864379</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864382</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864384</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864387</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864389</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864392</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864394</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864397</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864399</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864402</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864407</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864410</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864413</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864415</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864418</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864420</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864423</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864426</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864428</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864431</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864434</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864436</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864439</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864441</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864444</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864446</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864450</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864453</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864456</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864458</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864461</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864463</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864466</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864468</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864471</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864473</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864476</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864479</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864481</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864484</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864486</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864489</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864493</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864496</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864499</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864502</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864504</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864507</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864509</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864512</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864514</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864517</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864519</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864522</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864524</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864528</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864530</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864533</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864535</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864538</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864540</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864543</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864547</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864550</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864553</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864555</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864558</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864561</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864563</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864566</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864568</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864571</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864573</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864576</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864579</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Primary ciliary disorders</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864581</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Primary ciliary disorders</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.864584</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Primary ciliary disorders.xlsx
+++ b/data/panelapp/uk/Primary ciliary disorders.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864191</t>
+          <t>2021-10-05 14:22:17.517793</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864204</t>
+          <t>2021-10-05 14:22:17.517799</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864207</t>
+          <t>2021-10-05 14:22:17.517801</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864210</t>
+          <t>2021-10-05 14:22:17.517803</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864212</t>
+          <t>2021-10-05 14:22:17.517805</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864215</t>
+          <t>2021-10-05 14:22:17.517807</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864218</t>
+          <t>2021-10-05 14:22:17.517809</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864224</t>
+          <t>2021-10-05 14:22:17.517811</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864227</t>
+          <t>2021-10-05 14:22:17.517813</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864229</t>
+          <t>2021-10-05 14:22:17.517815</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864232</t>
+          <t>2021-10-05 14:22:17.517817</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864234</t>
+          <t>2021-10-05 14:22:17.517818</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864237</t>
+          <t>2021-10-05 14:22:17.517820</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864239</t>
+          <t>2021-10-05 14:22:17.517822</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864242</t>
+          <t>2021-10-05 14:22:17.517824</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864245</t>
+          <t>2021-10-05 14:22:17.517826</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864247</t>
+          <t>2021-10-05 14:22:17.517828</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864250</t>
+          <t>2021-10-05 14:22:17.517830</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864252</t>
+          <t>2021-10-05 14:22:17.517832</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864255</t>
+          <t>2021-10-05 14:22:17.517834</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864257</t>
+          <t>2021-10-05 14:22:17.517836</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864260</t>
+          <t>2021-10-05 14:22:17.517838</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864264</t>
+          <t>2021-10-05 14:22:17.517840</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864266</t>
+          <t>2021-10-05 14:22:17.517842</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864269</t>
+          <t>2021-10-05 14:22:17.517844</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864272</t>
+          <t>2021-10-05 14:22:17.517846</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864275</t>
+          <t>2021-10-05 14:22:17.517848</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864277</t>
+          <t>2021-10-05 14:22:17.517850</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864280</t>
+          <t>2021-10-05 14:22:17.517852</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864283</t>
+          <t>2021-10-05 14:22:17.517854</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864285</t>
+          <t>2021-10-05 14:22:17.517855</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864288</t>
+          <t>2021-10-05 14:22:17.517857</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864291</t>
+          <t>2021-10-05 14:22:17.517860</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864293</t>
+          <t>2021-10-05 14:22:17.517862</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864296</t>
+          <t>2021-10-05 14:22:17.517864</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864298</t>
+          <t>2021-10-05 14:22:17.517865</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864301</t>
+          <t>2021-10-05 14:22:17.517867</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864303</t>
+          <t>2021-10-05 14:22:17.517869</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864306</t>
+          <t>2021-10-05 14:22:17.517871</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864308</t>
+          <t>2021-10-05 14:22:17.517873</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864311</t>
+          <t>2021-10-05 14:22:17.517875</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864314</t>
+          <t>2021-10-05 14:22:17.517877</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864317</t>
+          <t>2021-10-05 14:22:17.517879</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864319</t>
+          <t>2021-10-05 14:22:17.517881</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864321</t>
+          <t>2021-10-05 14:22:17.517883</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864324</t>
+          <t>2021-10-05 14:22:17.517885</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864326</t>
+          <t>2021-10-05 14:22:17.517887</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864329</t>
+          <t>2021-10-05 14:22:17.517889</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864331</t>
+          <t>2021-10-05 14:22:17.517891</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864334</t>
+          <t>2021-10-05 14:22:17.517893</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864336</t>
+          <t>2021-10-05 14:22:17.517895</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864339</t>
+          <t>2021-10-05 14:22:17.517897</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864342</t>
+          <t>2021-10-05 14:22:17.517899</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864345</t>
+          <t>2021-10-05 14:22:17.517901</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864347</t>
+          <t>2021-10-05 14:22:17.517903</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864350</t>
+          <t>2021-10-05 14:22:17.517905</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864352</t>
+          <t>2021-10-05 14:22:17.517907</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864355</t>
+          <t>2021-10-05 14:22:17.517908</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864357</t>
+          <t>2021-10-05 14:22:17.517910</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864360</t>
+          <t>2021-10-05 14:22:17.517912</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864362</t>
+          <t>2021-10-05 14:22:17.517914</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864365</t>
+          <t>2021-10-05 14:22:17.517916</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864368</t>
+          <t>2021-10-05 14:22:17.517918</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864370</t>
+          <t>2021-10-05 14:22:17.517920</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864374</t>
+          <t>2021-10-05 14:22:17.517923</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864377</t>
+          <t>2021-10-05 14:22:17.517925</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864379</t>
+          <t>2021-10-05 14:22:17.517927</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864382</t>
+          <t>2021-10-05 14:22:17.517929</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864384</t>
+          <t>2021-10-05 14:22:17.517931</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864387</t>
+          <t>2021-10-05 14:22:17.517933</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864389</t>
+          <t>2021-10-05 14:22:17.517935</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864392</t>
+          <t>2021-10-05 14:22:17.517936</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864394</t>
+          <t>2021-10-05 14:22:17.517938</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864397</t>
+          <t>2021-10-05 14:22:17.517940</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864399</t>
+          <t>2021-10-05 14:22:17.517942</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864402</t>
+          <t>2021-10-05 14:22:17.517944</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864407</t>
+          <t>2021-10-05 14:22:17.517947</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864410</t>
+          <t>2021-10-05 14:22:17.517949</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864413</t>
+          <t>2021-10-05 14:22:17.517951</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864415</t>
+          <t>2021-10-05 14:22:17.517953</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864418</t>
+          <t>2021-10-05 14:22:17.517955</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864420</t>
+          <t>2021-10-05 14:22:17.517957</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864423</t>
+          <t>2021-10-05 14:22:17.517959</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864426</t>
+          <t>2021-10-05 14:22:17.517961</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864428</t>
+          <t>2021-10-05 14:22:17.517963</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864431</t>
+          <t>2021-10-05 14:22:17.517965</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864434</t>
+          <t>2021-10-05 14:22:17.517967</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864436</t>
+          <t>2021-10-05 14:22:17.517968</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864439</t>
+          <t>2021-10-05 14:22:17.517970</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864441</t>
+          <t>2021-10-05 14:22:17.517972</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864444</t>
+          <t>2021-10-05 14:22:17.517974</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864446</t>
+          <t>2021-10-05 14:22:17.517976</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864450</t>
+          <t>2021-10-05 14:22:17.517979</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864453</t>
+          <t>2021-10-05 14:22:17.517981</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864456</t>
+          <t>2021-10-05 14:22:17.517983</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864458</t>
+          <t>2021-10-05 14:22:17.517985</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864461</t>
+          <t>2021-10-05 14:22:17.517987</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864463</t>
+          <t>2021-10-05 14:22:17.517989</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864466</t>
+          <t>2021-10-05 14:22:17.517991</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864468</t>
+          <t>2021-10-05 14:22:17.517993</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864471</t>
+          <t>2021-10-05 14:22:17.517995</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864473</t>
+          <t>2021-10-05 14:22:17.517996</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864476</t>
+          <t>2021-10-05 14:22:17.517998</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864479</t>
+          <t>2021-10-05 14:22:17.518000</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864481</t>
+          <t>2021-10-05 14:22:17.518002</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864484</t>
+          <t>2021-10-05 14:22:17.518004</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864486</t>
+          <t>2021-10-05 14:22:17.518006</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864489</t>
+          <t>2021-10-05 14:22:17.518008</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864493</t>
+          <t>2021-10-05 14:22:17.518011</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864496</t>
+          <t>2021-10-05 14:22:17.518014</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864499</t>
+          <t>2021-10-05 14:22:17.518016</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864502</t>
+          <t>2021-10-05 14:22:17.518018</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864504</t>
+          <t>2021-10-05 14:22:17.518020</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864507</t>
+          <t>2021-10-05 14:22:17.518022</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864509</t>
+          <t>2021-10-05 14:22:17.518024</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864512</t>
+          <t>2021-10-05 14:22:17.518026</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864514</t>
+          <t>2021-10-05 14:22:17.518028</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864517</t>
+          <t>2021-10-05 14:22:17.518030</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864519</t>
+          <t>2021-10-05 14:22:17.518032</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864522</t>
+          <t>2021-10-05 14:22:17.518034</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864524</t>
+          <t>2021-10-05 14:22:17.518036</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864528</t>
+          <t>2021-10-05 14:22:17.518038</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864530</t>
+          <t>2021-10-05 14:22:17.518040</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864533</t>
+          <t>2021-10-05 14:22:17.518042</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864535</t>
+          <t>2021-10-05 14:22:17.518044</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864538</t>
+          <t>2021-10-05 14:22:17.518046</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864540</t>
+          <t>2021-10-05 14:22:17.518048</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864543</t>
+          <t>2021-10-05 14:22:17.518051</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864547</t>
+          <t>2021-10-05 14:22:17.518054</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864550</t>
+          <t>2021-10-05 14:22:17.518057</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864553</t>
+          <t>2021-10-05 14:22:17.518059</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864555</t>
+          <t>2021-10-05 14:22:17.518061</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864558</t>
+          <t>2021-10-05 14:22:17.518063</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864561</t>
+          <t>2021-10-05 14:22:17.518065</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864563</t>
+          <t>2021-10-05 14:22:17.518067</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864566</t>
+          <t>2021-10-05 14:22:17.518069</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864568</t>
+          <t>2021-10-05 14:22:17.518071</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864571</t>
+          <t>2021-10-05 14:22:17.518073</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864573</t>
+          <t>2021-10-05 14:22:17.518075</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864576</t>
+          <t>2021-10-05 14:22:17.518077</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864579</t>
+          <t>2021-10-05 14:22:17.518079</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864581</t>
+          <t>2021-10-05 14:22:17.518081</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,91 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.864584</t>
+          <t>2021-10-05 14:22:17.518083</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Primary ciliary disorders</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>178</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-08-25T11:19:36.477951Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:17.515357</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/178/?format=json</t>
         </is>
       </c>
     </row>
